--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +420,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,942 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +420,1748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>SURAT/NAVSARI/PIPLOD/VARACHHA/VYARA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Price list w.e.f. 08/07/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MODEL NAME</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3XO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FUEL TYPE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DIESEL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>GUJARAT</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>On Road Price - Individual</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>On Road Price - Corporate</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 year Own Damage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Extended</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ex-showroom</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tax Collection</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+ 3 years Third Party</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Model &amp; Variant</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Warranty</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RSA (1 year)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Registration</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>On Road Price</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Registration</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>On Road Price</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Registration</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>On Road Price</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Registration</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>On Road Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>at Source (TCS)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+ Zero Depreciation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(4th  Year)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+ Engine Protection +</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Consumables+ RTI</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Hypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MX2 DS MT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>₹ 9,99,000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>₹ 0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>₹ 48,521</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>₹ 24,975</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>₹ 46,756</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>₹ 11,89,371</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>₹ 48,256</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>₹ 11,90,871</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>₹ 92,511</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>₹ 12,35,127</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>₹ 94,011</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>₹ 12,36,627</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MX2 PRO DS MT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>₹ 10,64,001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>₹ 10,640</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>₹ 50,631</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>₹ 37,240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>₹ 49,733</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>₹ 12,82,364</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>₹ 51,233</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>₹ 12,83,864</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>₹ 98,466</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>₹ 13,31,097</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>₹ 99,966</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>₹ 13,32,597</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MX3 DS MT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>₹ 10,99,000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>₹ 10,990</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>₹ 51,361</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>₹ 38,465</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>₹ 51,336</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>₹ 13,21,270</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>₹ 52,836</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>₹ 13,22,770</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>₹ 1,01,672</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>₹ 13,71,606</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>₹ 1,03,172</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>₹ 13,73,106</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MX3 PRO DS MT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>₹ 11,56,000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>₹ 11,560</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>₹ 52,969</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>₹ 40,460</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>₹ 53,947</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>₹ 13,85,055</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>₹ 55,447</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>₹ 13,86,555</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>₹ 1,06,893</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>₹ 14,38,001</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>₹ 1,08,393</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>₹ 14,39,501</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AX5 DS MT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>₹ 12,19,000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>₹ 12,190</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>₹ 54,760</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>₹ 42,665</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>₹ 56,832</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>₹ 14,55,566</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>₹ 58,332</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>₹ 14,57,066</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>₹ 1,12,664</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>₹ 15,11,398</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>₹ 1,14,164</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>₹ 15,12,898</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AX7 DS MT DT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>₹ 13,89,000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>₹ 13,890</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>₹ 59,561</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>₹ 48,615</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>₹ 64,618</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>₹ 16,45,803</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>₹ 66,118</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>₹ 16,47,303</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>₹ 1,28,237</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>₹ 17,09,421</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>₹ 1,29,737</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>₹ 17,10,921</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AX7L DS MT DT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>₹ 14,99,000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>₹ 14,990</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>₹ 62,862</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>₹ 52,465</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>₹ 69,656</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>₹ 17,69,092</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>₹ 71,156</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>₹ 17,70,592</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>₹ 1,38,313</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>₹ 18,37,749</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>₹ 1,39,813</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>₹ 18,39,249</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MX3 DS AS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>₹ 11,95,999</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>₹ 11,960</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>₹ 54,104</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>₹ 41,860</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>₹ 55,779</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>₹ 14,29,821</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>₹ 57,279</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>₹ 14,31,321</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>₹ 1,10,557</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>₹ 14,84,600</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>₹ 1,12,057</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>₹ 14,86,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AX5 DS AS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>₹ 12,99,000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>₹ 12,990</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>₹ 57,094</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>₹ 45,465</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>₹ 60,496</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>₹ 15,45,164</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>₹ 61,996</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>₹ 15,46,664</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>₹ 1,19,992</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>₹ 16,04,660</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>₹ 1,21,492</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>₹ 16,06,160</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AX7 DS AS DT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>₹ 14,69,999</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>₹ 14,700</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>₹ 61,865</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>₹ 25,000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>₹ 51,450</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>₹ 15,500</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>₹ 25,999</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>₹ 3,020</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>₹ 600</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>₹ 68,328</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>₹ 17,36,461</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>₹ 69,828</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>₹ 17,37,961</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>₹ 1,35,656</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>₹ 18,03,789</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>₹ 1,37,156</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>₹ 18,05,289</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>General Terms &amp; Condition.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2161,6 +2161,770 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +420,886 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,15 +536,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20250708</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -566,69 +562,45 @@
       <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>999000</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>999000</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>24975</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24975</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L3" t="n">
+        <v>600</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>46756</t>
-        </is>
+      <c r="N3" t="n">
+        <v>46756</v>
       </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>92511</t>
-        </is>
+      <c r="P3" t="n">
+        <v>92511</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -636,69 +608,45 @@
       <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1064001</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1064001</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>37240</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G4" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37240</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L4" t="n">
+        <v>600</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>49733</t>
-        </is>
+      <c r="N4" t="n">
+        <v>49733</v>
       </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>98466</t>
-        </is>
+      <c r="P4" t="n">
+        <v>98466</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -706,69 +654,45 @@
       <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1099000</t>
-        </is>
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1099000</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>38465</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G5" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>38465</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L5" t="n">
+        <v>600</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>51336</t>
-        </is>
+      <c r="N5" t="n">
+        <v>51336</v>
       </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>101672</t>
-        </is>
+      <c r="P5" t="n">
+        <v>101672</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -776,69 +700,45 @@
       <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1156000</t>
-        </is>
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1156000</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>40460</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G6" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>40460</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L6" t="n">
+        <v>600</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>53947</t>
-        </is>
+      <c r="N6" t="n">
+        <v>53947</v>
       </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>106893</t>
-        </is>
+      <c r="P6" t="n">
+        <v>106893</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -846,69 +746,45 @@
       <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1219000</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>42665</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>42665</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L7" t="n">
+        <v>600</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>56832</t>
-        </is>
+      <c r="N7" t="n">
+        <v>56832</v>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>112664</t>
-        </is>
+      <c r="P7" t="n">
+        <v>112664</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -916,69 +792,45 @@
       <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1389000</t>
-        </is>
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1389000</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>48615</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G8" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>48615</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J8" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L8" t="n">
+        <v>600</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>64618</t>
-        </is>
+      <c r="N8" t="n">
+        <v>64618</v>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>128237</t>
-        </is>
+      <c r="P8" t="n">
+        <v>128237</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -986,69 +838,45 @@
       <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1499000</t>
-        </is>
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1499000</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>52465</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G9" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>52465</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L9" t="n">
+        <v>600</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>69656</t>
-        </is>
+      <c r="N9" t="n">
+        <v>69656</v>
       </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>138313</t>
-        </is>
+      <c r="P9" t="n">
+        <v>138313</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1056,69 +884,45 @@
       <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1195999</t>
-        </is>
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1195999</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>41860</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G10" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>41860</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J10" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L10" t="n">
+        <v>600</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>55779</t>
-        </is>
+      <c r="N10" t="n">
+        <v>55779</v>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>110557</t>
-        </is>
+      <c r="P10" t="n">
+        <v>110557</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1126,69 +930,45 @@
       <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1299000</t>
-        </is>
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1299000</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>45465</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G11" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>45465</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L11" t="n">
+        <v>600</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>60496</t>
-        </is>
+      <c r="N11" t="n">
+        <v>60496</v>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>119992</t>
-        </is>
+      <c r="P11" t="n">
+        <v>119992</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1196,69 +976,45 @@
       <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1469999</t>
-        </is>
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1469999</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>51450</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G12" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>51450</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J12" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L12" t="n">
+        <v>600</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>68328</t>
-        </is>
+      <c r="N12" t="n">
+        <v>68328</v>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>135656</t>
-        </is>
+      <c r="P12" t="n">
+        <v>135656</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1266,20 +1022,14 @@
       <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -1299,6 +1049,770 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20250708</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1054,11 @@
       <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20250708</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1080,69 +1080,45 @@
       <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>999000</t>
-        </is>
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>999000</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>24975</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G15" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>24975</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J15" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L15" t="n">
+        <v>600</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>46756</t>
-        </is>
+      <c r="N15" t="n">
+        <v>46756</v>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>92511</t>
-        </is>
+      <c r="P15" t="n">
+        <v>92511</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1150,69 +1126,45 @@
       <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1064001</t>
-        </is>
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1064001</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>37240</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G16" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37240</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J16" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L16" t="n">
+        <v>600</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>49733</t>
-        </is>
+      <c r="N16" t="n">
+        <v>49733</v>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>98466</t>
-        </is>
+      <c r="P16" t="n">
+        <v>98466</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1220,69 +1172,45 @@
       <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1099000</t>
-        </is>
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1099000</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>38465</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G17" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>38465</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J17" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L17" t="n">
+        <v>600</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>51336</t>
-        </is>
+      <c r="N17" t="n">
+        <v>51336</v>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>101672</t>
-        </is>
+      <c r="P17" t="n">
+        <v>101672</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1290,69 +1218,45 @@
       <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1156000</t>
-        </is>
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1156000</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>40460</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G18" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>40460</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L18" t="n">
+        <v>600</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>53947</t>
-        </is>
+      <c r="N18" t="n">
+        <v>53947</v>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>106893</t>
-        </is>
+      <c r="P18" t="n">
+        <v>106893</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1360,69 +1264,45 @@
       <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1219000</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>42665</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G19" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>42665</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J19" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L19" t="n">
+        <v>600</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>56832</t>
-        </is>
+      <c r="N19" t="n">
+        <v>56832</v>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>112664</t>
-        </is>
+      <c r="P19" t="n">
+        <v>112664</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1430,69 +1310,45 @@
       <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1389000</t>
-        </is>
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1389000</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>48615</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G20" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>48615</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L20" t="n">
+        <v>600</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>64618</t>
-        </is>
+      <c r="N20" t="n">
+        <v>64618</v>
       </c>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>128237</t>
-        </is>
+      <c r="P20" t="n">
+        <v>128237</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1500,69 +1356,45 @@
       <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1499000</t>
-        </is>
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1499000</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>52465</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G21" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>52465</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L21" t="n">
+        <v>600</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>69656</t>
-        </is>
+      <c r="N21" t="n">
+        <v>69656</v>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>138313</t>
-        </is>
+      <c r="P21" t="n">
+        <v>138313</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -1570,69 +1402,45 @@
       <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1195999</t>
-        </is>
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1195999</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>41860</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G22" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>41860</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L22" t="n">
+        <v>600</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>55779</t>
-        </is>
+      <c r="N22" t="n">
+        <v>55779</v>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>110557</t>
-        </is>
+      <c r="P22" t="n">
+        <v>110557</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -1640,69 +1448,45 @@
       <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1299000</t>
-        </is>
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1299000</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>45465</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G23" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>45465</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J23" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L23" t="n">
+        <v>600</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>60496</t>
-        </is>
+      <c r="N23" t="n">
+        <v>60496</v>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>119992</t>
-        </is>
+      <c r="P23" t="n">
+        <v>119992</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -1710,69 +1494,45 @@
       <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1469999</t>
-        </is>
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1469999</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>51450</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>15500</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>25999</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3020</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="G24" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>51450</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15500</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3020</v>
+      </c>
+      <c r="L24" t="n">
+        <v>600</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>68328</t>
-        </is>
+      <c r="N24" t="n">
+        <v>68328</v>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>135656</t>
-        </is>
+      <c r="P24" t="n">
+        <v>135656</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -1780,20 +1540,14 @@
       <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>20250708</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20250708</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1813,6 +1567,1094 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Model&amp;Variant</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>+3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ExtendedWarranty(4thYear)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MaxiCare</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MX2DSMT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>48521</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1189371</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>48256</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1190871</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MX2PRODSMT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10640</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>50631</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1282364</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>51233</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1283864</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MX3DSMT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>51361</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1321270</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>52836</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1322770</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MX3PRODSMT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>52969</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1385055</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>55447</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1386555</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AX5DSMT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12190</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1455566</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>58332</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1457066</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AX7DSMTDT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>13890</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>59561</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1645803</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>66118</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1647303</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AX7LDSMTDT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>14990</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>62862</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1769092</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>71156</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>1770592</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MX3DSAS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>11960</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>54104</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1429821</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1431321</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AX5DSAS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>57094</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>1545164</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>1546664</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AX7DSASDT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>61865</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1736461</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>69828</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>1737961</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +424,1210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Model&amp;Variant</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>+3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ExtendedWarranty(4thYear)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MaxiCare</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MX2DSMT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>48521</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1189371</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>48256</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1190871</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MX2PRODSMT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10640</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>50631</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1282364</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>51233</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1283864</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MX3DSMT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>51361</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1321270</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>52836</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1322770</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MX3PRODSMT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>52969</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1385055</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>55447</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1386555</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AX5DSMT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12190</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1455566</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>58332</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1457066</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AX7DSMTDT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13890</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>59561</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1645803</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>66118</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1647303</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AX7LDSMTDT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14990</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>62862</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1769092</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>71156</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1770592</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MX3DSAS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11960</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>54104</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1429821</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1431321</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AX5DSAS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>57094</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1545164</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1546664</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AX7DSASDT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>61865</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1736461</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>69828</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1737961</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +424,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Model &amp; Variant</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>+3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ExtendedWarranty(4thYear)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MaxiCare</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MX2 DS MT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>48521</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1189371</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>48256</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1190871</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MX2 PRO DS MT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10640</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>50631</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1282364</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>51233</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1283864</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MX3 DS MT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>51361</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1321270</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>52836</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1322770</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MX3 PRO DS MT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>52969</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1385055</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>55447</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1386555</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AX5 DS MT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12190</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1455566</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>58332</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1457066</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AX7 DS MT DT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13890</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>59561</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1645803</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>66118</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1647303</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AX7L DS MT DT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14990</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>62862</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1769092</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>71156</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1770592</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MX3 DS AS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11960</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>54104</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1429821</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1431321</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AX5 DS AS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>57094</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1545164</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1546664</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AX7 DS AS DT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>61865</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1736461</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>69828</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1737961</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,6 +1510,1766 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Model &amp; Variant</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Warranty(4thyear)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>MAXICARE</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MX1 PM MT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>799000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>55729</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>19975</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>38163</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>982986</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>39663</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>984486</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>75326</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>REVX M PM MT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>894000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>60441</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>22350</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>42581</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1089492</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>44081</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1090992</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>84163</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>REVX M(O) PM MT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>944000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>62922</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>23600</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>44907</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1145548</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>46407</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1147048</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>88814</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MX2 PRO PM MT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>954000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>62610</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>23850</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>45372</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1155951</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>46872</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1157451</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>89744</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MX3 PM MT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>974000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>69498</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>24350</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>46302</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1184269</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>47802</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1185769</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>91605</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MX3 PRO PM MT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>64608</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>47465</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1206167</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1207667</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>93930</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AX5 PM MT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>68959</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>52116</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1339650</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>53616</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1341150</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>103233</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>REVX A PG MT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1178999</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11790</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>72808</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>41265</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>55837</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1430818</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>57337</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1432318</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>110674</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AX5L TGDI MT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1262000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>76291</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>44170</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>59698</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1524897</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>61198</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1526397</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>118395</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AX7 TGDI MT DT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1279500</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12795</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>77075</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>44783</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>60512</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1544783</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>62012</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1546283</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>120023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REVX A PG AT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>78005</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>61419</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1566997</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>62919</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1568497</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>121837</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AX7L TGDI MT DT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1680522</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>67570</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1682022</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>131140</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MX2 PRO PM AT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1054000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10540</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>67055</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>36890</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>50023</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>1288627</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>51523</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1290127</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>99047</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MX3 PM AT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1140000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>11400</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>70778</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>54023</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1386221</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>55523</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1387721</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>107047</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MX3 PRO PM AT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1169000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>72156</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>40915</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>55372</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1419252</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>56872</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1420752</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>109744</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AX5 PM AT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1249000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>12490</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>75636</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>43715</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>59093</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>1510053</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>60593</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1511553</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>117186</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AX5L TGDI AT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1394000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>13940</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>82149</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>48790</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>65837</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1674836</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>67337</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1676336</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>130674</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AX7 TGDI AT DT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1680522</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>67570</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>1682022</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>131140</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AX7L TGDI AT DT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1579501</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>15795</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>90382</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>55283</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>74465</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1885544</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>75965</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>1887044</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>147930</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3667,6 +3670,2294 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Model &amp; Variant</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Warranty(4th&amp;5thyear)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>MAXICARE</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MX PET MT 5 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>101554</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>57716</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1729344</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>59216</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>1730844</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>114432</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MX PET MT 5 STR - E BS6.2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1449000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>14490</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>103876</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>50715</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>59743</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1785944</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>61243</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>1787444</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>118486</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MX PET MT 7 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1449001</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>14490</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>103893</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>50715</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>59743</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1785961</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>61243</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>1787461</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>118487</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MX PET MT 7 STR - E BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14990</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>106187</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>61770</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>1842532</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>63270</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1844032</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>122541</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AX5 S PET MT 7 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1688999</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>16890</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>114871</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>59115</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>69473</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2057467</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>70973</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2058967</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>137946</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AX5 S PET MT 7 STR - E BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1738999</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>17390</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>118060</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>60865</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>71500</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>2114933</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>73000</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2116433</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>142000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AX5 PET MT 5 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1769000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>17690</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>118551</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>61915</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>72716</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>2147991</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>74216</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2149491</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>144432</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AX5 PET MT 5 STR - E BS6.2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1819000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>18190</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>121202</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>63665</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>74743</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>2204919</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>76243</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2206419</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>148486</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AX5 PET MT 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1834000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>18340</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>121547</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>64190</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>75351</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2221547</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>76851</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2223047</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>149703</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>AX5 PET MT 7 STR - E BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1883999</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>18840</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>124177</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>65940</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>77378</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>2278454</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>78878</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2279954</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>153757</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AX7 PET MT 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1949000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>19490</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>129847</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>68215</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>80014</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2354685</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>81514</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2356185</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>159027</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AX7 PET MT 6 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1969000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>19690</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>127761</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>68915</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>80824</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2374309</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>82324</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2375809</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>160649</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AX5 S PET AT 7 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1864000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>18640</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>122990</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>65240</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>76568</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2263557</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>78068</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2265057</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>152135</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AX5 PET AT 5 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1929000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>19290</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>125946</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>67515</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>79203</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>2337072</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>80703</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2338572</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>157405</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AX5 PET AT 7 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1994000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>19940</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>128887</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>69790</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>81838</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2410574</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>83338</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2412074</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>162676</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AX7 PET AT 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2099000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>20990</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>133752</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>73465</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>86095</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>2529420</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>87595</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>2530920</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>171189</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AX7 PET AT 6 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2119000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>21190</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>134673</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>74165</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>86905</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>2552053</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>88405</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>2553553</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>172811</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AX7 L PET AT 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2319000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>23190</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>143893</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>81165</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>95014</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2778381</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>96514</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>2779881</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>189027</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AX7 L PET AT 6 STR BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2339000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>23390</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>144805</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>81865</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>95824</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2801004</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>97324</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2802504</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>190649</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AX7 PET MT 7 STR BS6.2 Dual Tone - New</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1964000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>19640</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>127540</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>68740</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>80622</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2368660</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>82122</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>2370160</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>160243</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AX7 PET MT 6 STR BS6.2 Dual Tone - New</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1984000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>19840</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>128452</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>69440</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>81432</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>2391284</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>82932</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>2392784</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>161865</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AX7 PET AT 7 STR BS6.2 Dual Tone - New</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2113999</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>21140</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>134436</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>73990</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>86703</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2546386</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>88203</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>2547886</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>172405</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AX7 PET AT 6 STR BS6.2 Dual Tone - New</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2134000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>21340</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>139443</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>74690</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>87514</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2573105</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>89014</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>2574605</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>174027</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AX7 L PET AT 7 STR BS6.2 Dual Tone - New</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2334000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>23340</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>144538</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>81690</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>95622</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>2795309</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>97122</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>2796809</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>190243</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>XUV700 PETROL</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AX7 L PET AT 6 STR BS6.2 Dual Tone - New</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2354000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>23540</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>145484</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>82390</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>96432</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2817965</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>97932</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>2819465</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>191865</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3676,7 +3676,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -3764,7 +3764,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -3852,7 +3852,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C38" t="inlineStr">
@@ -3940,7 +3940,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C39" t="inlineStr">
@@ -4028,7 +4028,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -4116,7 +4116,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -4204,7 +4204,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -4292,7 +4292,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -4380,7 +4380,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -4468,7 +4468,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -4556,7 +4556,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C46" t="inlineStr">
@@ -4644,7 +4644,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -4732,7 +4732,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -4820,7 +4820,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -4908,7 +4908,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -4996,7 +4996,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C51" t="inlineStr">
@@ -5084,7 +5084,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C52" t="inlineStr">
@@ -5172,7 +5172,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -5260,7 +5260,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -5348,7 +5348,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -5436,7 +5436,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -5524,7 +5524,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -5612,7 +5612,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C58" t="inlineStr">
@@ -5700,7 +5700,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -5788,7 +5788,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -5876,7 +5876,7 @@
           <t>XUV700 PETROL</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -5955,6 +5955,1766 @@
       <c r="T61" t="inlineStr">
         <is>
           <t>191865</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Model &amp; Variant</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>+3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Warranty(4thyear)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>MAXICARE</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MX1 PM MT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>799000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>55729</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>19975</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>38163</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>982986</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>39663</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>984486</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>75326</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>REVX M PM MT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>894000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>60441</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>22350</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>42581</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>1089492</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>44081</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>1090992</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>84163</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>REVX M(O) PM MT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>944000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>62922</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>23600</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>44907</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1145548</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>46407</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>1147048</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>88814</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MX2 PRO PM MT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>954000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>62610</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>23850</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>45372</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1155951</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>46872</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>1157451</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>89744</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MX3 PM MT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>974000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>69498</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>24350</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>46302</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1184269</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>47802</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>1185769</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>91605</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MX3 PRO PM MT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>64608</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>47465</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>1206167</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>1207667</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>93930</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AX5 PM MT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>68959</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>52116</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1339650</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>53616</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>1341150</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>103233</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>REVX A PG MT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1178999</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>11790</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>72808</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>41265</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>55837</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>1430818</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>57337</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>1432318</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>110674</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AX5L TGDI MT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1262000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>76291</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>44170</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>59698</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1524897</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>61198</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>1526397</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>118395</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AX7 TGDI MT DT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1279500</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>12795</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>77075</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>44783</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>60512</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>1544783</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>62012</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>1546283</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>120023</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>REVX A PG AT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>78005</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>61419</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>1566997</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>62919</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>1568497</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>121837</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AX7L TGDI MT DT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>1680522</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>67570</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>1682022</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>131140</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MX2 PRO PM AT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1054000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>10540</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>67055</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>36890</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>50023</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>1288627</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>51523</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>1290127</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>99047</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MX3 PM AT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1140000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>11400</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>70778</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>54023</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1386221</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>55523</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1387721</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>107047</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MX3 PRO PM AT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1169000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>72156</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>40915</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>55372</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>1419252</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>56872</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>1420752</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>109744</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AX5 PM AT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1249000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>12490</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>75636</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>43715</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>59093</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1510053</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>60593</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>1511553</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>117186</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>AX5L TGDI AT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1394000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>13940</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>82149</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>48790</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>65837</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>1674836</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>67337</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>1676336</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>130674</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>AX7 TGDI AT DT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>1680522</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>67570</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>1682022</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>131140</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AX7L TGDI AT DT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1579501</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>15795</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>90382</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>55283</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>74465</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1885544</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>75965</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>1887044</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>147930</t>
         </is>
       </c>
     </row>

--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +424,1882 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Model &amp; Variant</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ex-showroomPrice</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TaxCollectionatSource(TCS)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>+3yearsThirdParty+ZeroDepreciation+EngineProtection+Consumables+RTI</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AccessoriesKit</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Warranty(4thyear)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MAXICARE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RSA(1year)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithoutHypothecation</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>RegistrationwithHypothecation</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>OnRoadPricewithHypothecation</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>RegistrationwithoutHypothecation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MX1 PM MT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>799000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>55729</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19975</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>38163</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>982986</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>39663</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>984486</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>75326</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>REVX M PM MT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>894000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>60441</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>22350</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>42581</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1089492</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>44081</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1090992</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>84163</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>REVX M(O) PM MT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>944000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>62922</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23600</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>44907</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1145548</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>46407</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1147048</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>88814</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MX2 PRO PM MT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>954000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>62610</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>23850</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>45372</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1155951</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>46872</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1157451</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>89744</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MX3 PM MT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>974000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>69498</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>24350</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>46302</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1184269</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>47802</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1185769</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>91605</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MX3 PRO PM MT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>64608</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>47465</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1206167</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1207667</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>93930</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>AX5 PM MT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>68959</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>52116</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1339650</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>53616</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1341150</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>103233</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>REVX A PG MT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1178999</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11790</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>72808</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>41265</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>55837</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1430818</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>57337</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1432318</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>110674</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AX5L TGDI MT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1262000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>76291</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>44170</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>59698</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1524897</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>61198</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1526397</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>118395</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AX7 TGDI MT DT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1279500</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12795</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>77075</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>44783</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>60512</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1544783</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>62012</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1546283</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>120023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>REVX A PG AT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>78005</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>61419</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1566997</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>62919</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1568497</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>121837</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AX7L TGDI MT DT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1680522</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>67570</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1682022</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>131140</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MX2 PRO PM AT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1054000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10540</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>67055</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>36890</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>50023</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1288627</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>51523</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1290127</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>99047</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MX3 PM AT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1140000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11400</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>70778</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>39900</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>54023</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1386221</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>55523</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1387721</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>107047</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MX3 PRO PM AT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1169000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>72156</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>40915</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>55372</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1419252</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>56872</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1420752</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>109744</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AX5 PM AT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1249000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12490</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>75636</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>43715</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>59093</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1510053</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>60593</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1511553</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>117186</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AX5L TGDI AT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1394000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>13940</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>82149</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>48790</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>65837</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1674836</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>67337</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1676336</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>130674</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AX7 TGDI AT DT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13990</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>82379</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>66070</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1680522</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>67570</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1682022</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>131140</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3XO PETROL</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AX7L TGDI AT DT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1579501</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>15795</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>90382</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>55283</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>74465</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1885544</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>75965</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1887044</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>147930</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +424,1266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Z2 G MT 2WD 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1399200</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13992</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100534</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>48972</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>57724</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1726540</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>59224</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1728040</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>114449</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Z2 G MT 2WD 7 STR - E BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1399200</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13992</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>100534</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>48972</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>57724</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1726540</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>59224</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1728040</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>114449</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Z4 G MT 2WD 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1577000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15770</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>109728</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>55195</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>64932</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1928743</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>66432</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1930243</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>128865</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Z4 G MT 2WD 7 STR - E BS6.2 - New</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1577000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15770</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>109728</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>55195</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>64932</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1928743</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>66432</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1930243</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>128865</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Z8 S G MT 2WD 7 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1758000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17580</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>118054</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>61530</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>72270</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2133552</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>73770</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2135052</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>143541</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Z8 G MT 2WD 7 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1916000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>19160</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>125293</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>67060</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>78676</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2312307</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>80176</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2313807</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>156351</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Z8 L G MT 2WD 7 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2089000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20890</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>133267</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>73115</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>85689</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2508079</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>87189</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2509579</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>170378</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Z8 L G MT 2WD 6 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2113000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21130</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>134383</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>73955</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>35999</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>86662</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2535248</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>88162</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2536748</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>172324</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Z4 G AT 2WD 7 STR BS6.2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1739001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17390</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>117085</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>60865</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>71500</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2117959</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>73000</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2119459</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>142000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Z8 S G AT 2WD 7 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1906000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19060</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>124760</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>66710</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>78270</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2306918</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>79770</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2308418</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>155541</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Z8 G AT 2WD 7 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2068999</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>20690</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>132530</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>72415</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>84878</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2491630</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>86378</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2493130</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>168757</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Z8 L G AT 2WD 7 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2230000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>22300</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>139597</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>78050</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>91405</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2673471</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>92905</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2674971</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>181811</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SCORPIO N PETROL</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Z8 L G AT 2WD 6 STR BS6.2 - N</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2249000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>22490</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>140466</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>78715</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>41999</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>92176</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2694965</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>93676</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2696465</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>183351</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -1,124 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142DF4D1-3640-4677-81AE-DD6DAFF250ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Ex-Showroom Price</t>
-  </si>
-  <si>
-    <t>TCS 1%</t>
-  </si>
-  <si>
-    <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
-  </si>
-  <si>
-    <t>Accessories Kit</t>
-  </si>
-  <si>
-    <t>SMC</t>
-  </si>
-  <si>
-    <t>Extended Warranty</t>
-  </si>
-  <si>
-    <t>Maxi Care</t>
-  </si>
-  <si>
-    <t>RSA (1 Year)</t>
-  </si>
-  <si>
-    <t>Fastag</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (W/O HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Individual</t>
-  </si>
-  <si>
-    <t>RTO (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>On Road Price (With HYPO) - Corporate</t>
-  </si>
-  <si>
-    <t>Price List D.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,50 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,98 +424,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price List D.</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ex-Showroom Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TCS 1%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance 1 Yr OD + 3 Yr TP + Zero Dep.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accessories Kit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SMC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Extended Warranty</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Maxi Care</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RSA (1 Year)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Fastag</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (W/O HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Individual</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTO (With HYPO) - Corporate</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>On Road Price (With HYPO) - Corporate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MX2 DS MT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>999000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>48521</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>24975</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>46756</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1189371</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>48256</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1190871</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>92511</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MX2 PRO DS MT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1064001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10640</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>50631</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>37240</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>49733</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1282364</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>51233</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1283864</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>98466</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MX3 DS MT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1099000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51361</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1321270</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>52836</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1322770</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>101672</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MX3 PRO DS MT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1156000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11560</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>52969</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>40460</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>53947</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1385055</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>55447</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1386555</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>106893</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AX5 DS MT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12190</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>42665</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>56832</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1455566</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>58332</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1457066</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>112664</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AX7 DS MT DT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1389000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13890</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>59561</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>48615</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>64618</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1645803</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>66118</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1647303</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>128237</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AX7L DS MT DT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1499000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14990</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>62862</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>52465</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>69656</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1769092</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>71156</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1770592</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>138313</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MX3 DS AS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1195999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11960</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>54104</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>55779</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1429821</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1431321</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>110557</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AX5 DS AS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>57094</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>45465</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>60496</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1545164</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1546664</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>119992</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3XO DIESEL</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AX7 DS AS DT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1469999</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>61865</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>25000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>51450</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25999</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1736461</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>69828</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1737961</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>135656</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -559,73 +559,69 @@
           <t>999000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>48521</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>24975</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
+          <t>1189371</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>48256</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>46756</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1189371</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>48256</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>1190871</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>92511</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -647,73 +643,69 @@
           <t>1064001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>10640</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>50631</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>37240</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
+          <t>1282364</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>51233</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>49733</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1282364</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>51233</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>1283864</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>98466</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -735,73 +727,69 @@
           <t>1099000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>10990</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>51361</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>38465</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
+          <t>1321270</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>52836</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>51336</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1321270</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>52836</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>1322770</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>101672</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -823,73 +811,69 @@
           <t>1156000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>11560</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>52969</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>40460</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
+          <t>1385055</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>55447</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>53947</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1385055</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>55447</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>1386555</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>106893</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -911,73 +895,69 @@
           <t>1219000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>12190</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>54760</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>42665</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
+          <t>1455566</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>58332</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>56832</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1455566</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>58332</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>1457066</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>112664</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -999,73 +979,69 @@
           <t>1389000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>13890</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>59561</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>48615</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
+          <t>1645803</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>66118</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>64618</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1645803</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>66118</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>1647303</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>128237</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1087,73 +1063,69 @@
           <t>1499000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>14990</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>62862</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>52465</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
+          <t>1769092</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>71156</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>69656</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1769092</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>71156</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>1770592</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>138313</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1175,73 +1147,69 @@
           <t>1195999</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>11960</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>54104</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>41860</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
+          <t>1429821</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>57279</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>55779</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1429821</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>57279</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>1431321</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>110557</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1263,73 +1231,69 @@
           <t>1299000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>12990</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>57094</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>45465</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
+          <t>1545164</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>60496</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1545164</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>61996</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>1546664</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>119992</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1351,73 +1315,69 @@
           <t>1469999</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>14700</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>61865</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>25000</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>51450</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>15500</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>25999</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3020</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>600</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
+          <t>1736461</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>69828</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>68328</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1736461</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>69828</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>1737961</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>135656</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
